--- a/TrueAug_DiG_cora_ml12-20-11:10:49_dir.xlsx
+++ b/TrueAug_DiG_cora_ml12-20-11:10:49_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,621 +871,873 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:88, time:4.511788, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:124, time:7.665126, test_Acc: 21.95, test_bacc: 25.22, test_f1: 12.47</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:87, time:6.446304, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:123, time:6.494113, test_Acc: 21.95, test_bacc: 25.22, test_f1: 12.47</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:86, time:4.945669, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:122, time:7.303784, test_Acc: 21.57, test_bacc: 24.83, test_f1: 11.30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:85, time:7.787945, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:121, time:7.052786, test_Acc: 21.57, test_bacc: 24.83, test_f1: 11.30</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:84, time:4.208535, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:120, time:8.611446, test_Acc: 20.89, test_bacc: 24.12, test_f1: 9.86</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:83, time:6.946570, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:119, time:5.168805, test_Acc: 20.89, test_bacc: 24.12, test_f1: 9.86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:82, time:4.827399, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:118, time:6.243523, test_Acc: 20.47, test_bacc: 23.66, test_f1: 9.39</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:81, time:6.553565, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:117, time:8.197927, test_Acc: 20.47, test_bacc: 23.66, test_f1: 9.39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:80, time:5.089598, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:116, time:7.120206, test_Acc: 19.19, test_bacc: 22.27, test_f1: 8.82</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:79, time:6.246627, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:115, time:7.229919, test_Acc: 19.19, test_bacc: 22.27, test_f1: 8.82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:78, time:5.335359, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:114, time:4.530530, test_Acc: 18.22, test_bacc: 21.19, test_f1: 8.79</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:77, time:7.428603, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:113, time:5.643691, test_Acc: 18.22, test_bacc: 21.19, test_f1: 8.79</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:76, time:4.094228, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:112, time:4.768235, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:75, time:5.424346, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:111, time:6.225595, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:74, time:5.712067, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:110, time:4.013226, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:73, time:6.573244, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:109, time:6.078327, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:72, time:4.795366, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:108, time:4.626860, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:71, time:5.540387, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:107, time:4.275917, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:70, time:5.754079, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:106, time:5.614488, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:69, time:5.417955, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:105, time:4.390535, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:68, time:5.598826, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:104, time:5.738450, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:67, time:5.346412, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:103, time:4.344614, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:66, time:5.725852, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:102, time:5.584196, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:65, time:5.456722, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:101, time:5.169746, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:64, time:5.946074, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:100, time:5.263167, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:63, time:6.015434, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:99, time:5.078665, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:62, time:5.617201, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:98, time:5.353365, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:61, time:6.710723, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:97, time:5.922664, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:60, time:5.280391, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:96, time:6.159352, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:59, time:7.004885, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:95, time:4.832624, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:58, time:4.365879, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:94, time:6.245416, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:57, time:5.506431, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:93, time:4.924038, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:56, time:5.312548, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:92, time:4.701430, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:55, time:5.184991, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:91, time:5.920976, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:54, time:6.672416, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:90, time:4.604767, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:53, time:4.350305, test_Acc: 13.89, test_bacc: 22.49, test_f1: 11.44</t>
+          <t>Epoch:89, time:6.528306, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:52, time:6.708868, test_Acc: 13.04, test_bacc: 22.04, test_f1: 11.65</t>
+          <t>Epoch:88, time:4.511788, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:51, time:4.303316, test_Acc: 11.30, test_bacc: 20.20, test_f1: 10.25</t>
+          <t>Epoch:87, time:6.446304, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:50, time:5.108552, test_Acc: 9.68, test_bacc: 18.41, test_f1: 8.21</t>
+          <t>Epoch:86, time:4.945669, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:49, time:5.190264, test_Acc: 8.24, test_bacc: 16.73, test_f1: 5.96</t>
+          <t>Epoch:85, time:7.787945, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:48, time:5.706499, test_Acc: 6.75, test_bacc: 15.00, test_f1: 3.02</t>
+          <t>Epoch:84, time:4.208535, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:47, time:5.337738, test_Acc: 6.33, test_bacc: 14.49, test_f1: 2.06</t>
+          <t>Epoch:83, time:6.946570, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:46, time:7.203576, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:82, time:4.827399, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:45, time:4.188111, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:81, time:6.553565, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:44, time:5.589402, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:80, time:5.089598, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:43, time:4.910067, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:79, time:6.246627, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:42, time:6.288849, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:78, time:5.335359, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:41, time:5.146023, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:77, time:7.428603, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:40, time:5.104465, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:76, time:4.094228, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:39, time:5.675577, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:75, time:5.424346, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:38, time:5.988117, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:74, time:5.712067, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:37, time:5.795193, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:73, time:6.573244, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:36, time:4.645962, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:72, time:4.795366, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:35, time:6.800880, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:71, time:5.540387, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:34, time:5.126127, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:70, time:5.754079, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:33, time:5.359290, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:69, time:5.417955, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:32, time:5.089293, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:68, time:5.598826, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:31, time:5.317608, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:67, time:5.346412, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:30, time:6.579298, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:66, time:5.725852, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:29, time:5.379372, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:65, time:5.456722, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:28, time:6.041015, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:64, time:5.946074, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:27, time:4.262928, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:63, time:6.015434, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:26, time:6.613620, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:62, time:5.617201, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:25, time:5.341947, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:61, time:6.710723, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:24, time:7.290884, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:60, time:5.280391, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:23, time:4.306528, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:59, time:7.004885, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:22, time:6.697859, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:58, time:4.365879, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:21, time:5.519846, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:57, time:5.506431, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:20, time:5.374167, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:56, time:5.312548, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:19, time:5.701317, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:55, time:5.184991, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:18, time:4.958733, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:54, time:6.672416, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:17, time:6.384673, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:53, time:4.350305, test_Acc: 13.89, test_bacc: 22.49, test_f1: 11.44</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:16, time:5.151004, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:52, time:6.708868, test_Acc: 13.04, test_bacc: 22.04, test_f1: 11.65</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:15, time:6.518814, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:51, time:4.303316, test_Acc: 11.30, test_bacc: 20.20, test_f1: 10.25</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:14, time:3.993859, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:50, time:5.108552, test_Acc: 9.68, test_bacc: 18.41, test_f1: 8.21</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:13, time:7.927922, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:49, time:5.190264, test_Acc: 8.24, test_bacc: 16.73, test_f1: 5.96</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:12, time:6.604747, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:48, time:5.706499, test_Acc: 6.75, test_bacc: 15.00, test_f1: 3.02</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:11, time:5.456629, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:47, time:5.337738, test_Acc: 6.33, test_bacc: 14.49, test_f1: 2.06</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:10, time:4.679141, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:46, time:7.203576, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:9, time:3.941850, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:45, time:4.188111, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:8, time:6.191253, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:44, time:5.589402, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:7, time:3.521142, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:43, time:4.910067, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:6, time:5.757953, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:42, time:6.288849, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:5, time:5.030083, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:41, time:5.146023, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:4, time:6.631716, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:40, time:5.104465, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:3, time:4.924819, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:39, time:5.675577, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:2, time:5.330569, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:38, time:5.988117, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:1, time:5.446567, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:37, time:5.795193, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:4.645962, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:6.800880, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:5.126127, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:5.359290, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:5.089293, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:5.317608, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:6.579298, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:5.379372, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:6.041015, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:4.262928, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:6.613620, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:5.341947, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:7.290884, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:4.306528, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:6.697859, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:5.519846, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:5.374167, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:5.701317, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:4.958733, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:6.384673, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:5.151004, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:6.518814, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:3.993859, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:7.927922, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:6.604747, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:5.456629, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:4.679141, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:3.941850, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:6.191253, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:3.521142, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:5.757953, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:5.030083, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:6.631716, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:4.924819, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:5.330569, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:5.446567, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>Epoch:0, time:7.224070, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>

--- a/TrueAug_DiG_cora_ml12-20-11:10:49_dir.xlsx
+++ b/TrueAug_DiG_cora_ml12-20-11:10:49_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A126"/>
+  <dimension ref="A1:A196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,873 +871,1363 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:124, time:7.665126, test_Acc: 21.95, test_bacc: 25.22, test_f1: 12.47</t>
+          <t>Epoch:194, time:6.296522, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:123, time:6.494113, test_Acc: 21.95, test_bacc: 25.22, test_f1: 12.47</t>
+          <t>Epoch:193, time:6.428914, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:122, time:7.303784, test_Acc: 21.57, test_bacc: 24.83, test_f1: 11.30</t>
+          <t>Epoch:192, time:7.598216, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:121, time:7.052786, test_Acc: 21.57, test_bacc: 24.83, test_f1: 11.30</t>
+          <t>Epoch:191, time:5.254958, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:120, time:8.611446, test_Acc: 20.89, test_bacc: 24.12, test_f1: 9.86</t>
+          <t>Epoch:190, time:6.985975, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:119, time:5.168805, test_Acc: 20.89, test_bacc: 24.12, test_f1: 9.86</t>
+          <t>Epoch:189, time:6.466077, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:118, time:6.243523, test_Acc: 20.47, test_bacc: 23.66, test_f1: 9.39</t>
+          <t>Epoch:188, time:7.244977, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:117, time:8.197927, test_Acc: 20.47, test_bacc: 23.66, test_f1: 9.39</t>
+          <t>Epoch:187, time:6.043804, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:116, time:7.120206, test_Acc: 19.19, test_bacc: 22.27, test_f1: 8.82</t>
+          <t>Epoch:186, time:7.964929, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:115, time:7.229919, test_Acc: 19.19, test_bacc: 22.27, test_f1: 8.82</t>
+          <t>Epoch:185, time:5.778926, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:114, time:4.530530, test_Acc: 18.22, test_bacc: 21.19, test_f1: 8.79</t>
+          <t>Epoch:184, time:7.446701, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:113, time:5.643691, test_Acc: 18.22, test_bacc: 21.19, test_f1: 8.79</t>
+          <t>Epoch:183, time:5.627117, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:112, time:4.768235, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:182, time:7.758345, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:111, time:6.225595, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:181, time:5.608695, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:110, time:4.013226, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:180, time:7.322829, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:109, time:6.078327, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:179, time:5.747328, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:108, time:4.626860, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:178, time:6.132724, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:107, time:4.275917, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:177, time:5.868080, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:106, time:5.614488, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:176, time:6.298802, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:105, time:4.390535, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:175, time:5.850163, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:104, time:5.738450, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:174, time:7.711475, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:103, time:4.344614, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:173, time:6.845896, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:102, time:5.584196, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:172, time:7.369248, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:101, time:5.169746, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:171, time:5.006488, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:100, time:5.263167, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:170, time:7.110102, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:99, time:5.078665, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:169, time:6.082459, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:98, time:5.353365, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:168, time:7.413079, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:97, time:5.922664, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:167, time:5.409823, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:96, time:6.159352, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:166, time:7.365949, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:95, time:4.832624, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:165, time:5.758643, test_Acc: 21.57, test_bacc: 24.64, test_f1: 14.49</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:94, time:6.245416, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:164, time:7.476883, test_Acc: 21.95, test_bacc: 25.12, test_f1: 14.31</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:93, time:4.924038, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:163, time:4.101723, test_Acc: 21.95, test_bacc: 25.12, test_f1: 14.31</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:92, time:4.701430, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:162, time:7.597669, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:91, time:5.920976, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:161, time:5.288164, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:90, time:4.604767, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:160, time:6.756033, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:89, time:6.528306, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:159, time:7.288005, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:88, time:4.511788, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:158, time:6.979599, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:87, time:6.446304, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:157, time:6.738771, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:86, time:4.945669, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:156, time:4.755527, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:85, time:7.787945, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:155, time:7.748752, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:84, time:4.208535, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:154, time:5.488244, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:83, time:6.946570, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:153, time:7.752995, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:82, time:4.827399, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:152, time:4.487629, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:81, time:6.553565, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:151, time:8.370489, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:80, time:5.089598, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:150, time:5.037245, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:79, time:6.246627, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:149, time:7.832389, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:78, time:5.335359, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:148, time:4.985216, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:77, time:7.428603, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:147, time:7.086284, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:76, time:4.094228, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:146, time:6.945806, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:75, time:5.424346, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:145, time:6.535869, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:74, time:5.712067, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:144, time:6.879627, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:73, time:6.573244, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:143, time:5.327783, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:72, time:4.795366, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:142, time:7.026334, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:71, time:5.540387, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:141, time:7.120990, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:70, time:5.754079, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:140, time:6.951586, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:69, time:5.417955, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:139, time:5.098567, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:68, time:5.598826, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:138, time:6.562448, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:67, time:5.346412, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:137, time:6.342889, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:66, time:5.725852, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:136, time:8.041771, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:65, time:5.456722, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:135, time:4.536191, test_Acc: 21.87, test_bacc: 25.01, test_f1: 14.21</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:64, time:5.946074, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:134, time:8.340619, test_Acc: 21.91, test_bacc: 25.08, test_f1: 13.96</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:63, time:6.015434, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:133, time:5.071723, test_Acc: 21.91, test_bacc: 25.08, test_f1: 13.96</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:62, time:5.617201, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:132, time:8.972815, test_Acc: 22.08, test_bacc: 25.30, test_f1: 13.65</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:61, time:6.710723, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:131, time:5.608082, test_Acc: 22.08, test_bacc: 25.30, test_f1: 13.65</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:60, time:5.280391, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:130, time:7.951799, test_Acc: 22.08, test_bacc: 25.30, test_f1: 13.65</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:59, time:7.004885, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:129, time:6.366916, test_Acc: 22.08, test_bacc: 25.30, test_f1: 13.65</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:58, time:4.365879, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:128, time:6.758320, test_Acc: 22.12, test_bacc: 25.35, test_f1: 13.63</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:57, time:5.506431, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:127, time:6.203012, test_Acc: 22.12, test_bacc: 25.35, test_f1: 13.63</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:56, time:5.312548, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:126, time:8.368469, test_Acc: 21.95, test_bacc: 25.19, test_f1: 12.99</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:55, time:5.184991, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:125, time:5.522439, test_Acc: 21.95, test_bacc: 25.19, test_f1: 12.99</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:54, time:6.672416, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+          <t>Epoch:124, time:7.665126, test_Acc: 21.95, test_bacc: 25.22, test_f1: 12.47</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:53, time:4.350305, test_Acc: 13.89, test_bacc: 22.49, test_f1: 11.44</t>
+          <t>Epoch:123, time:6.494113, test_Acc: 21.95, test_bacc: 25.22, test_f1: 12.47</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:52, time:6.708868, test_Acc: 13.04, test_bacc: 22.04, test_f1: 11.65</t>
+          <t>Epoch:122, time:7.303784, test_Acc: 21.57, test_bacc: 24.83, test_f1: 11.30</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:51, time:4.303316, test_Acc: 11.30, test_bacc: 20.20, test_f1: 10.25</t>
+          <t>Epoch:121, time:7.052786, test_Acc: 21.57, test_bacc: 24.83, test_f1: 11.30</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:50, time:5.108552, test_Acc: 9.68, test_bacc: 18.41, test_f1: 8.21</t>
+          <t>Epoch:120, time:8.611446, test_Acc: 20.89, test_bacc: 24.12, test_f1: 9.86</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:49, time:5.190264, test_Acc: 8.24, test_bacc: 16.73, test_f1: 5.96</t>
+          <t>Epoch:119, time:5.168805, test_Acc: 20.89, test_bacc: 24.12, test_f1: 9.86</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:48, time:5.706499, test_Acc: 6.75, test_bacc: 15.00, test_f1: 3.02</t>
+          <t>Epoch:118, time:6.243523, test_Acc: 20.47, test_bacc: 23.66, test_f1: 9.39</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:47, time:5.337738, test_Acc: 6.33, test_bacc: 14.49, test_f1: 2.06</t>
+          <t>Epoch:117, time:8.197927, test_Acc: 20.47, test_bacc: 23.66, test_f1: 9.39</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:46, time:7.203576, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:116, time:7.120206, test_Acc: 19.19, test_bacc: 22.27, test_f1: 8.82</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:45, time:4.188111, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:115, time:7.229919, test_Acc: 19.19, test_bacc: 22.27, test_f1: 8.82</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:44, time:5.589402, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:114, time:4.530530, test_Acc: 18.22, test_bacc: 21.19, test_f1: 8.79</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:43, time:4.910067, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:113, time:5.643691, test_Acc: 18.22, test_bacc: 21.19, test_f1: 8.79</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:42, time:6.288849, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:112, time:4.768235, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:41, time:5.146023, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:111, time:6.225595, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:40, time:5.104465, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:110, time:4.013226, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:39, time:5.675577, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:109, time:6.078327, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:38, time:5.988117, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:108, time:4.626860, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:37, time:5.795193, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:107, time:4.275917, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:36, time:4.645962, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:106, time:5.614488, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:35, time:6.800880, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:105, time:4.390535, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:34, time:5.126127, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:104, time:5.738450, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:33, time:5.359290, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:103, time:4.344614, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:32, time:5.089293, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:102, time:5.584196, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:31, time:5.317608, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:101, time:5.169746, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch:30, time:6.579298, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:100, time:5.263167, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch:29, time:5.379372, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:99, time:5.078665, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch:28, time:6.041015, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:98, time:5.353365, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch:27, time:4.262928, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:97, time:5.922664, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch:26, time:6.613620, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:96, time:6.159352, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch:25, time:5.341947, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:95, time:4.832624, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch:24, time:7.290884, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:94, time:6.245416, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch:23, time:4.306528, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:93, time:4.924038, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch:22, time:6.697859, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:92, time:4.701430, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch:21, time:5.519846, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:91, time:5.920976, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:20, time:5.374167, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:90, time:4.604767, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:19, time:5.701317, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:89, time:6.528306, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:18, time:4.958733, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:88, time:4.511788, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:17, time:6.384673, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:87, time:6.446304, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:16, time:5.151004, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:86, time:4.945669, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:15, time:6.518814, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:85, time:7.787945, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:14, time:3.993859, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:84, time:4.208535, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:13, time:7.927922, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:83, time:6.946570, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:12, time:6.604747, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:82, time:4.827399, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epoch:11, time:5.456629, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:81, time:6.553565, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epoch:10, time:4.679141, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:80, time:5.089598, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epoch:9, time:3.941850, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:79, time:6.246627, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epoch:8, time:6.191253, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:78, time:5.335359, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epoch:7, time:3.521142, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:77, time:7.428603, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epoch:6, time:5.757953, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:76, time:4.094228, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Epoch:5, time:5.030083, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:75, time:5.424346, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Epoch:4, time:6.631716, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:74, time:5.712067, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epoch:3, time:4.924819, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:73, time:6.573244, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Epoch:2, time:5.330569, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:72, time:4.795366, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Epoch:1, time:5.446567, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+          <t>Epoch:71, time:5.540387, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:5.754079, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:5.417955, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:5.598826, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:5.346412, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:5.725852, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:5.456722, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:5.946074, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:6.015434, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:5.617201, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:6.710723, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:5.280391, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:7.004885, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:4.365879, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:5.506431, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:5.312548, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:5.184991, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:6.672416, test_Acc: 14.23, test_bacc: 22.80, test_f1: 11.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:4.350305, test_Acc: 13.89, test_bacc: 22.49, test_f1: 11.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:6.708868, test_Acc: 13.04, test_bacc: 22.04, test_f1: 11.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:4.303316, test_Acc: 11.30, test_bacc: 20.20, test_f1: 10.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:5.108552, test_Acc: 9.68, test_bacc: 18.41, test_f1: 8.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:5.190264, test_Acc: 8.24, test_bacc: 16.73, test_f1: 5.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:5.706499, test_Acc: 6.75, test_bacc: 15.00, test_f1: 3.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:5.337738, test_Acc: 6.33, test_bacc: 14.49, test_f1: 2.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:7.203576, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:4.188111, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:5.589402, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:4.910067, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:6.288849, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:5.146023, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:5.104465, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:5.675577, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:5.988117, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:5.795193, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:4.645962, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:6.800880, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:5.126127, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:5.359290, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:5.089293, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:5.317608, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:6.579298, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:5.379372, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:6.041015, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:4.262928, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:6.613620, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:5.341947, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:7.290884, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:4.306528, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:6.697859, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:5.519846, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:5.374167, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:5.701317, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:4.958733, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:6.384673, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:5.151004, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:6.518814, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:3.993859, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:7.927922, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:6.604747, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:5.456629, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:4.679141, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:3.941850, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:6.191253, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:3.521142, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:5.757953, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:5.030083, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:6.631716, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:4.924819, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:5.330569, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:5.446567, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>Epoch:0, time:7.224070, test_Acc: 6.16, test_bacc: 14.29, test_f1: 1.66</t>
         </is>
